--- a/Descriptive_statistics/Descriptive Statistic Compute.xlsx
+++ b/Descriptive_statistics/Descriptive Statistic Compute.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
   <si>
     <t>Use</t>
+  </si>
+  <si>
+    <t>ค่า</t>
   </si>
   <si>
     <t>Mean</t>
@@ -130,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -146,6 +149,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -400,11 +406,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="895169470"/>
-        <c:axId val="1195523605"/>
+        <c:axId val="519151386"/>
+        <c:axId val="1715787"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="895169470"/>
+        <c:axId val="519151386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,10 +442,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195523605"/>
+        <c:crossAx val="1715787"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1195523605"/>
+        <c:axId val="1715787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="895169470"/>
+        <c:crossAx val="519151386"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -692,11 +698,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1583762629"/>
-        <c:axId val="1004667043"/>
+        <c:axId val="225113140"/>
+        <c:axId val="606388893"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1583762629"/>
+        <c:axId val="225113140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,10 +734,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1004667043"/>
+        <c:crossAx val="606388893"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1004667043"/>
+        <c:axId val="606388893"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583762629"/>
+        <c:crossAx val="225113140"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -860,11 +866,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="879304964"/>
-        <c:axId val="116586828"/>
+        <c:axId val="136759384"/>
+        <c:axId val="1633692144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="879304964"/>
+        <c:axId val="136759384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,10 +902,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116586828"/>
+        <c:crossAx val="1633692144"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116586828"/>
+        <c:axId val="1633692144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +953,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879304964"/>
+        <c:crossAx val="136759384"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -996,7 +1002,7 @@
     <xdr:ext cx="8467725" cy="4019550"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1051,7 +1057,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1081,67 +1087,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1449,7 +1455,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <f>AVERAGE(B2:B5)</f>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <f>MEDIAN(B2:B5)</f>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="str">
         <f>mode(B2:B5)</f>
@@ -1584,7 +1590,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <f>sqrt(VAR(B2:B5))</f>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <f>QUARTILE(B2:B5,1)</f>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <f>QUARTILE(B2:B5,2)</f>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <f>QUARTILE(B2:B5,3)</f>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <f>B14-B12</f>
@@ -1812,7 +1818,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <f>B14 + (1.5 * B15)</f>
@@ -1857,7 +1863,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <f>B12-1.5*B15</f>
@@ -1900,76 +1906,863 @@
         <v>184793921928</v>
       </c>
     </row>
+    <row r="41">
+      <c r="S41">
+        <v>2.1200301603075E11</v>
+      </c>
+      <c r="U41">
+        <v>2.8205422259E10</v>
+      </c>
+      <c r="W41">
+        <v>1.580752511275E10</v>
+      </c>
+      <c r="Y41">
+        <v>4.956724708E9</v>
+      </c>
+      <c r="AA41">
+        <v>6.01315014875E9</v>
+      </c>
+      <c r="AC41">
+        <v>2.60286703275E9</v>
+      </c>
+      <c r="AE41">
+        <v>7.6204622425E8</v>
+      </c>
+      <c r="AG41">
+        <v>1.52916035155E10</v>
+      </c>
+      <c r="AI41">
+        <v>3.60334768575E9</v>
+      </c>
+      <c r="AK41">
+        <v>2.8924570271638477E11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>2.128402360465E11</v>
+      </c>
+      <c r="U42">
+        <v>3.0536768504E10</v>
+      </c>
+      <c r="W42">
+        <v>1.6556453485E10</v>
+      </c>
+      <c r="Y42">
+        <v>5.4396758025E9</v>
+      </c>
+      <c r="AA42">
+        <v>5.296285984E9</v>
+      </c>
+      <c r="AC42">
+        <v>2.783418887E9</v>
+      </c>
+      <c r="AE42">
+        <v>7.218573545E8</v>
+      </c>
+      <c r="AG42">
+        <v>1.748422853E10</v>
+      </c>
+      <c r="AI42">
+        <v>3.9049893555E9</v>
+      </c>
+      <c r="AK42">
+        <v>2.90965960811049E11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="M43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>2.1200301603075E11</v>
+      </c>
+      <c r="O43">
+        <v>2.128402360465E11</v>
+      </c>
+      <c r="P43">
+        <v>1.8707683207085846E10</v>
+      </c>
+      <c r="S43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="M44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44">
+        <v>2.8205422259E10</v>
+      </c>
+      <c r="O44">
+        <v>3.0536768504E10</v>
+      </c>
+      <c r="P44">
+        <v>1.260288790734929E10</v>
+      </c>
+      <c r="S44">
+        <v>1.8707683207085846E10</v>
+      </c>
+      <c r="U44">
+        <v>1.260288790734929E10</v>
+      </c>
+      <c r="W44">
+        <v>2.451603227213798E9</v>
+      </c>
+      <c r="Y44">
+        <v>1.1796669618860323E9</v>
+      </c>
+      <c r="AA44">
+        <v>2.527198797505781E9</v>
+      </c>
+      <c r="AC44">
+        <v>4.063052475629015E8</v>
+      </c>
+      <c r="AE44">
+        <v>2.488365574886809E8</v>
+      </c>
+      <c r="AG44">
+        <v>4.6773548186195345E9</v>
+      </c>
+      <c r="AI44">
+        <v>8.57095355126986E8</v>
+      </c>
+      <c r="AK44">
+        <v>3.8445254502558784E10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="M45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45">
+        <v>1.580752511275E10</v>
+      </c>
+      <c r="O45">
+        <v>1.6556453485E10</v>
+      </c>
+      <c r="P45">
+        <v>2.451603227213798E9</v>
+      </c>
+    </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>13</v>
+      <c r="A46" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B46">
         <v>2.128402360465E11</v>
       </c>
+      <c r="M46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46">
+        <v>4.956724708E9</v>
+      </c>
+      <c r="O46">
+        <v>5.4396758025E9</v>
+      </c>
+      <c r="P46">
+        <v>1.1796669618860323E9</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>15</v>
+      <c r="A47" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B47">
         <v>3.0536768504E10</v>
       </c>
+      <c r="M47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>6.01315014875E9</v>
+      </c>
+      <c r="O47">
+        <v>5.296285984E9</v>
+      </c>
+      <c r="P47">
+        <v>2.527198797505781E9</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>21</v>
+      <c r="A48" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B48">
         <v>1.748422853E10</v>
       </c>
+      <c r="M48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>2.60286703275E9</v>
+      </c>
+      <c r="O48">
+        <v>2.783418887E9</v>
+      </c>
+      <c r="P48">
+        <v>4.063052475629015E8</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>16</v>
+      <c r="A49" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B49">
         <v>1.6556453485E10</v>
       </c>
+      <c r="M49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>7.6204622425E8</v>
+      </c>
+      <c r="O49">
+        <v>7.218573545E8</v>
+      </c>
+      <c r="P49">
+        <v>2.488365574886809E8</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>17</v>
+      <c r="A50" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B50">
         <v>5.4396758025E9</v>
       </c>
+      <c r="M50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>1.52916035155E10</v>
+      </c>
+      <c r="O50">
+        <v>1.748422853E10</v>
+      </c>
+      <c r="P50">
+        <v>4.6773548186195345E9</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>18</v>
+      <c r="A51" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B51">
         <v>5.296285984E9</v>
       </c>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>3.60334768575E9</v>
+      </c>
+      <c r="O51">
+        <v>3.9049893555E9</v>
+      </c>
+      <c r="P51">
+        <v>8.57095355126986E8</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>22</v>
+      <c r="A52" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B52">
         <v>3.9049893555E9</v>
       </c>
+      <c r="M52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52">
+        <v>2.8924570271638477E11</v>
+      </c>
+      <c r="O52">
+        <v>2.90965960811049E11</v>
+      </c>
+      <c r="P52">
+        <v>3.8445254502558784E10</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>19</v>
+      <c r="A53" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B53">
         <v>2.783418887E9</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>20</v>
+      <c r="A54" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B54">
         <v>7.218573545E8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="N55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="N56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56">
+        <v>2.014876164385E11</v>
+      </c>
+      <c r="Q56">
+        <v>2.07714859155E10</v>
+      </c>
+      <c r="S56">
+        <v>1.50113716335E10</v>
+      </c>
+      <c r="U56">
+        <v>4.79948239525E9</v>
+      </c>
+      <c r="W56">
+        <v>4.67524423425E9</v>
+      </c>
+      <c r="Y56">
+        <v>2.57790699625E9</v>
+      </c>
+      <c r="AA56">
+        <v>6.6381296575E8</v>
+      </c>
+      <c r="AC56">
+        <v>1.51647360005E10</v>
+      </c>
+      <c r="AE56">
+        <v>3.45799324275E9</v>
+      </c>
+      <c r="AG56">
+        <v>2.6377785430485675E11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="N57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57">
+        <v>2.128402360465E11</v>
+      </c>
+      <c r="Q57">
+        <v>3.0536768504E10</v>
+      </c>
+      <c r="S57">
+        <v>1.6556453485E10</v>
+      </c>
+      <c r="U57">
+        <v>5.4396758025E9</v>
+      </c>
+      <c r="W57">
+        <v>5.296285984E9</v>
+      </c>
+      <c r="Y57">
+        <v>2.783418887E9</v>
+      </c>
+      <c r="AA57">
+        <v>7.218573545E8</v>
+      </c>
+      <c r="AC57">
+        <v>1.748422853E10</v>
+      </c>
+      <c r="AE57">
+        <v>3.9049893555E9</v>
+      </c>
+      <c r="AG57">
+        <v>2.90965960811049E11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="N58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O58">
+        <v>2.2335563563875E11</v>
+      </c>
+      <c r="Q58">
+        <v>3.79707048475E10</v>
+      </c>
+      <c r="S58">
+        <v>1.735260696425E10</v>
+      </c>
+      <c r="U58">
+        <v>5.59691811525E9</v>
+      </c>
+      <c r="W58">
+        <v>6.6341918985E9</v>
+      </c>
+      <c r="Y58">
+        <v>2.8083789235E9</v>
+      </c>
+      <c r="AA58">
+        <v>8.20090613E8</v>
+      </c>
+      <c r="AC58">
+        <v>1.7611096045E10</v>
+      </c>
+      <c r="AE58">
+        <v>4.0503437985E9</v>
+      </c>
+      <c r="AG58">
+        <v>3.16433809222577E11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="N59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <v>2.186801920025E10</v>
+      </c>
+      <c r="Q59">
+        <v>1.7199218932E10</v>
+      </c>
+      <c r="S59">
+        <v>2.34123533075E9</v>
+      </c>
+      <c r="U59">
+        <v>7.9743572E8</v>
+      </c>
+      <c r="W59">
+        <v>1.95894766425E9</v>
+      </c>
+      <c r="Y59">
+        <v>2.3047192725E8</v>
+      </c>
+      <c r="AA59">
+        <v>1.5627764725E8</v>
+      </c>
+      <c r="AC59">
+        <v>2.4463600445E9</v>
+      </c>
+      <c r="AE59">
+        <v>5.9235055575E8</v>
+      </c>
+      <c r="AG59">
+        <v>5.2655954917720276E10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="N60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60">
+        <v>2.56157664439125E11</v>
+      </c>
+      <c r="Q60">
+        <v>6.37695332455E10</v>
+      </c>
+      <c r="S60">
+        <v>2.0864459960375E10</v>
+      </c>
+      <c r="U60">
+        <v>6.79307169525E9</v>
+      </c>
+      <c r="W60">
+        <v>9.572613394875E9</v>
+      </c>
+      <c r="Y60">
+        <v>3.154086814375E9</v>
+      </c>
+      <c r="AA60">
+        <v>1.054507083875E9</v>
+      </c>
+      <c r="AC60">
+        <v>2.128063611175E10</v>
+      </c>
+      <c r="AE60">
+        <v>4.938869632125E9</v>
+      </c>
+      <c r="AG60">
+        <v>3.954177415991575E11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="N61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61">
+        <v>1.68685587638125E11</v>
+      </c>
+      <c r="Q61">
+        <v>-5.0273424825E9</v>
+      </c>
+      <c r="S61">
+        <v>1.1499518637375E10</v>
+      </c>
+      <c r="U61">
+        <v>3.60332881525E9</v>
+      </c>
+      <c r="W61">
+        <v>1.736822737875E9</v>
+      </c>
+      <c r="Y61">
+        <v>2.232199105375E9</v>
+      </c>
+      <c r="AA61">
+        <v>4.29396494875E8</v>
+      </c>
+      <c r="AC61">
+        <v>1.149519593375E10</v>
+      </c>
+      <c r="AE61">
+        <v>2.569467409125E9</v>
+      </c>
+      <c r="AG61">
+        <v>1.8479392192827634E11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="M63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="M64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>2.014876164385E11</v>
+      </c>
+      <c r="O64">
+        <v>2.128402360465E11</v>
+      </c>
+      <c r="P64">
+        <v>2.2335563563875E11</v>
+      </c>
+      <c r="Q64">
+        <v>2.186801920025E10</v>
+      </c>
+      <c r="R64">
+        <v>2.56157664439125E11</v>
+      </c>
+      <c r="S64">
+        <v>1.68685587638125E11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="M65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>2.07714859155E10</v>
+      </c>
+      <c r="O65">
+        <v>3.0536768504E10</v>
+      </c>
+      <c r="P65">
+        <v>3.79707048475E10</v>
+      </c>
+      <c r="Q65">
+        <v>1.7199218932E10</v>
+      </c>
+      <c r="R65">
+        <v>6.37695332455E10</v>
+      </c>
+      <c r="S65">
+        <v>-5.0273424825E9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="M66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66">
+        <v>1.50113716335E10</v>
+      </c>
+      <c r="O66">
+        <v>1.6556453485E10</v>
+      </c>
+      <c r="P66">
+        <v>1.735260696425E10</v>
+      </c>
+      <c r="Q66">
+        <v>2.34123533075E9</v>
+      </c>
+      <c r="R66">
+        <v>2.0864459960375E10</v>
+      </c>
+      <c r="S66">
+        <v>1.1499518637375E10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="M67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67">
+        <v>4.79948239525E9</v>
+      </c>
+      <c r="O67">
+        <v>5.4396758025E9</v>
+      </c>
+      <c r="P67">
+        <v>5.59691811525E9</v>
+      </c>
+      <c r="Q67">
+        <v>7.9743572E8</v>
+      </c>
+      <c r="R67">
+        <v>6.79307169525E9</v>
+      </c>
+      <c r="S67">
+        <v>3.60332881525E9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="M68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68">
+        <v>4.67524423425E9</v>
+      </c>
+      <c r="O68">
+        <v>5.296285984E9</v>
+      </c>
+      <c r="P68">
+        <v>6.6341918985E9</v>
+      </c>
+      <c r="Q68">
+        <v>1.95894766425E9</v>
+      </c>
+      <c r="R68">
+        <v>9.572613394875E9</v>
+      </c>
+      <c r="S68">
+        <v>1.736822737875E9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="M69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>2.57790699625E9</v>
+      </c>
+      <c r="O69">
+        <v>2.783418887E9</v>
+      </c>
+      <c r="P69">
+        <v>2.8083789235E9</v>
+      </c>
+      <c r="Q69">
+        <v>2.3047192725E8</v>
+      </c>
+      <c r="R69">
+        <v>3.154086814375E9</v>
+      </c>
+      <c r="S69">
+        <v>2.232199105375E9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="M70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>6.6381296575E8</v>
+      </c>
+      <c r="O70">
+        <v>7.218573545E8</v>
+      </c>
+      <c r="P70">
+        <v>8.20090613E8</v>
+      </c>
+      <c r="Q70">
+        <v>1.5627764725E8</v>
+      </c>
+      <c r="R70">
+        <v>1.054507083875E9</v>
+      </c>
+      <c r="S70">
+        <v>4.29396494875E8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="M71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71">
+        <v>1.51647360005E10</v>
+      </c>
+      <c r="O71">
+        <v>1.748422853E10</v>
+      </c>
+      <c r="P71">
+        <v>1.7611096045E10</v>
+      </c>
+      <c r="Q71">
+        <v>2.4463600445E9</v>
+      </c>
+      <c r="R71">
+        <v>2.128063611175E10</v>
+      </c>
+      <c r="S71">
+        <v>1.149519593375E10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="M72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72">
+        <v>3.45799324275E9</v>
+      </c>
+      <c r="O72">
+        <v>3.9049893555E9</v>
+      </c>
+      <c r="P72">
+        <v>4.0503437985E9</v>
+      </c>
+      <c r="Q72">
+        <v>5.9235055575E8</v>
+      </c>
+      <c r="R72">
+        <v>4.938869632125E9</v>
+      </c>
+      <c r="S72">
+        <v>2.569467409125E9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="M73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73">
+        <v>2.6377785430485675E11</v>
+      </c>
+      <c r="O73">
+        <v>2.90965960811049E11</v>
+      </c>
+      <c r="P73">
+        <v>3.16433809222577E11</v>
+      </c>
+      <c r="Q73">
+        <v>5.2655954917720276E10</v>
+      </c>
+      <c r="R73">
+        <v>3.954177415991575E11</v>
+      </c>
+      <c r="S73">
+        <v>1.8479392192827634E11</v>
       </c>
     </row>
   </sheetData>
@@ -1994,6 +2787,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -2007,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:B169)</f>
@@ -2026,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f>MEDIAN(B2:B169)</f>
@@ -2045,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
         <f>MODE(B2:B169)</f>
@@ -2064,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <f>sqrt(VAR(B2:B169))</f>
@@ -2082,7 +2878,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -2096,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <f>QUARTILE(B2:B169,1)</f>
@@ -2115,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <f>QUARTILE(B2:B169,2)</f>
@@ -2134,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <f>QUARTILE(B2:B169,3)</f>
@@ -2153,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <f>F9-F7</f>
@@ -2172,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <f> F9+F10 *1.5</f>
@@ -2191,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <f>F7-1.5*F10</f>
